--- a/project_admin/Mdm ClipMdPlus Project Management.xlsx
+++ b/project_admin/Mdm ClipMdPlus Project Management.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">ClipMdPlus</t>
   </si>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">This will provide conversion macros that the clipboard and other crates will make use of.</t>
   </si>
   <si>
-    <t xml:space="preserve">Document code, module and crates.</t>
+    <t xml:space="preserve">Document code, module and crates. (started 0823-0827)</t>
   </si>
   <si>
     <t xml:space="preserve">Turned on doc required attribute.</t>
@@ -176,6 +176,12 @@
 A rudimentary first draft is done so that online posts referencing the crate  and code (and repository issues) is available.</t>
   </si>
   <si>
+    <t xml:space="preserve">Evaluate Linux OS (clip) crates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect to Win clipboard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evaluate Rust clipboard crates</t>
   </si>
   <si>
@@ -186,16 +192,29 @@
   </si>
   <si>
     <t xml:space="preserve">Add Web API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dev Ops / Oss / Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows not linking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Win SDK and toolchain options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Expand not compiling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -299,76 +318,88 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,12 +480,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1800" topLeftCell="A11" activePane="bottomLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,66 +497,66 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="39.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="30.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="39.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="25.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -536,10 +567,10 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>45108</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>45122</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -548,7 +579,7 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -559,10 +590,10 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>45117</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>45143</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -582,16 +613,16 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>45131</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>45140</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -602,13 +633,13 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>45132</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -622,7 +653,7 @@
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>45139</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -642,7 +673,7 @@
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>45112</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -662,10 +693,10 @@
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>45139</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -679,7 +710,7 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -688,10 +719,10 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="18" t="n">
         <v>45161</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -699,30 +730,70 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="16"/>
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="16"/>
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" s="12" t="n">
         <v>45143</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <v>45163</v>
+      </c>
+      <c r="D25" s="18" t="n">
+        <v>45165</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="20" t="n">
+        <v>45125</v>
       </c>
     </row>
   </sheetData>
